--- a/BASE_DATA/CDS465_BASE_DATA.xlsx
+++ b/BASE_DATA/CDS465_BASE_DATA.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Documents/CDS465/archieve/Dev_P1/BASE_DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF9AB63-CF38-2349-AD3C-85E0BF067F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4EBA0C-BD4C-1D40-B163-75F7EE776103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{15FA0617-3CAD-FA4D-885B-C1135548FA52}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{15FA0617-3CAD-FA4D-885B-C1135548FA52}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="mm_product_master" sheetId="2" r:id="rId2"/>
     <sheet name="mm_manufacture_master" sheetId="3" r:id="rId3"/>
     <sheet name="mm_resource_master" sheetId="4" r:id="rId4"/>
+    <sheet name="qa_sandbox_orders" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="221">
   <si>
     <t>DataFrame</t>
   </si>
@@ -699,6 +700,9 @@
   </si>
   <si>
     <t>m000434</t>
+  </si>
+  <si>
+    <t>sell price</t>
   </si>
 </sst>
 </file>
@@ -4504,7 +4508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960F17EF-C57D-5740-BDBC-BB1A7533578E}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -7438,4 +7442,459 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDA187D-B728-BD4F-BFDC-C3643883E4F2}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1">
+        <v>120</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1">
+        <v>120</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="1">
+        <v>150</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="1">
+        <v>300</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="1">
+        <v>400</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="1">
+        <v>450</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="1">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="1">
+        <v>500</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="1">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="1">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="1">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="1">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="1">
+        <v>600</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="1">
+        <v>600</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="1">
+        <v>750</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="1">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="1">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="1">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>